--- a/file.xlsx
+++ b/file.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Isa\OneDrive\Documentos\MEIA-PROJ2\MEIA-PROJ2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hmoreira\Documents\MEIA-PROJ2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{62C39851-6502-4C9A-83FE-37BF78BD6D5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FAAF7BE-805D-4E08-81D8-317C137A7082}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5868" yWindow="2652" windowWidth="17280" windowHeight="8880" xr2:uid="{FC935343-D4B9-42DF-819D-A17819B89266}"/>
+    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8964" xr2:uid="{FC935343-D4B9-42DF-819D-A17819B89266}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>predictedProfits</t>
   </si>
@@ -45,6 +45,21 @@
   </si>
   <si>
     <t>dimension</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>p1</t>
+  </si>
+  <si>
+    <t>p2</t>
+  </si>
+  <si>
+    <t>p3</t>
+  </si>
+  <si>
+    <t>p4</t>
   </si>
 </sst>
 </file>
@@ -100,7 +115,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -396,10 +411,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19FCECCF-025A-43F2-A497-4D5B55F05952}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -408,7 +423,7 @@
     <col min="2" max="2" width="26.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -418,8 +433,11 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>100</v>
       </c>
@@ -429,8 +447,11 @@
       <c r="C2">
         <v>5</v>
       </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>200</v>
       </c>
@@ -440,8 +461,11 @@
       <c r="C3">
         <v>2</v>
       </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>300</v>
       </c>
@@ -451,8 +475,11 @@
       <c r="C4">
         <v>1</v>
       </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>10</v>
       </c>
@@ -461,6 +488,9 @@
       </c>
       <c r="C5">
         <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
